--- a/doc/ue_gasshooter.xlsx
+++ b/doc/ue_gasshooter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="783" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="输入控制" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="GE消耗" sheetId="6" r:id="rId6"/>
     <sheet name="GE伤害计算" sheetId="7" r:id="rId7"/>
     <sheet name="道具算什么" sheetId="8" r:id="rId8"/>
+    <sheet name="UAttributeSet注册" sheetId="9" r:id="rId9"/>
+    <sheet name="Inventory" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>void AGSHeroCharacter::SetupPlayerInputComponent(UInputComponent* PlayerInputComponent)</t>
   </si>
@@ -227,6 +229,211 @@
   </si>
   <si>
     <t>void UGSAbilitySystemComponent::AbilityLocalInputPressed(int32 InputID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UAbilitySystemComponent::InitializeComponent()</t>
+  </si>
+  <si>
+    <t>Super::InitializeComponent();</t>
+  </si>
+  <si>
+    <t>// Look for DSO AttributeSets (note we are currently requiring all attribute sets to be subobjects of the same owner. This doesn't *have* to be the case forever.</t>
+  </si>
+  <si>
+    <t>AActor *Owner = GetOwner();</t>
+  </si>
+  <si>
+    <t>InitAbilityActorInfo(Owner, Owner);</t>
+  </si>
+  <si>
+    <t>// Default init to our outer owner</t>
+  </si>
+  <si>
+    <t>// cleanup any bad data that may have gotten into SpawnedAttributes</t>
+  </si>
+  <si>
+    <t>TArray&lt;UAttributeSet*&gt;&amp; SpawnedAttributesRef = GetSpawnedAttributes_Mutable();</t>
+  </si>
+  <si>
+    <t>for (int32 Idx = SpawnedAttributesRef.Num()-1; Idx &gt;= 0; --Idx)</t>
+  </si>
+  <si>
+    <t>if (SpawnedAttributesRef[Idx] == nullptr)</t>
+  </si>
+  <si>
+    <t>SpawnedAttributesRef.RemoveAt(Idx);</t>
+  </si>
+  <si>
+    <t>TArray&lt;UObject*&gt; ChildObjects;</t>
+  </si>
+  <si>
+    <t>GetObjectsWithOuter(Owner, ChildObjects, false, RF_NoFlags, EInternalObjectFlags::PendingKill);</t>
+  </si>
+  <si>
+    <t>for (UObject* Obj : ChildObjects)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (Set)  </t>
+  </si>
+  <si>
+    <t>SpawnedAttributesRef.AddUnique(Set);</t>
+  </si>
+  <si>
+    <t>bIsNetDirty = true;</t>
+  </si>
+  <si>
+    <t>UAttributeSet* Set = Cast&lt;UAttributeSet&gt;(Obj);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ASC组件初始化里面，会遍历夫对象下面所有的对象，如果类型是UAttributeSet，就添加到自身里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS的注册比较神奇，不需要自己手动注册，ASC初始化时会自动扫描；我们只需要确保ASC和各个AS平级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历父节点的所有对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果时AS类型则添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家身上的仓库，技能，道具等信息都存在在里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能在服务器发起加入Inventory或者移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有操作的函数都加入了判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (GetLocalRole() &lt; ROLE_Authority)</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>！！！非服务器模式或者非standalone就直接不处理、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Inventory来同步玩家背包，技能等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在场景中拾取一个武器的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器对象碰撞检测回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGSWeapon::NotifyActorBeginOverlap(AActor* Other)</t>
+  </si>
+  <si>
+    <t>if (!IsPendingKill() &amp;&amp; !OwningCharacter)</t>
+  </si>
+  <si>
+    <t>PickUpOnTouch(Cast&lt;AGSHeroCharacter&gt;(Other));</t>
+  </si>
+  <si>
+    <t>进行特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器对象调捡起武器的处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGSWeapon::PickUpOnTouch(AGSHeroCharacter* InCharacter)</t>
+  </si>
+  <si>
+    <t>if (!InCharacter || !InCharacter-&gt;IsAlive() || !InCharacter-&gt;GetAbilitySystemComponent() || InCharacter-&gt;GetAbilitySystemComponent()-&gt;HasAnyMatchingGameplayTags(RestrictedPickupTags))</t>
+  </si>
+  <si>
+    <t>if (InCharacter-&gt;AddWeaponToInventory(this, true) &amp;&amp; OwningCharacter-&gt;IsInFirstPersonPerspective())</t>
+  </si>
+  <si>
+    <t>WeaponMesh3P-&gt;CastShadow = false;</t>
+  </si>
+  <si>
+    <t>WeaponMesh3P-&gt;SetVisibility(true, true);</t>
+  </si>
+  <si>
+    <t>WeaponMesh3P-&gt;SetVisibility(false, true);</t>
+  </si>
+  <si>
+    <t>判断玩家是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会判断是否为服务器或者独立模式，只有服务器或者独立模式才可以捡起武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！多人和NPC移动的情况，要么子类重写该函数，或者就需要判断是真人才能，防止NPC能捡枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool AGSHeroCharacter::AddWeaponToInventory(AGSWeapon* NewWeapon, bool bEquipWeapon)</t>
+  </si>
+  <si>
+    <t>真人玩家的类，实现AddWeaponToInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！非真人类不需要处理，因为自己捡不了枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！思考。对于场景中的背包，可以开出东西的箱子来说，自身为一个Actor，但是里面的东西感觉就使用纯数据类就行，不需要是Uobject或者Uactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有DS或者独立模式才能拾取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nventory.Weapons.Add(NewWeapon);</t>
+  </si>
+  <si>
+    <t>NewWeapon-&gt;SetOwningCharacter(this);</t>
+  </si>
+  <si>
+    <t>NewWeapon-&gt;AddAbilities();</t>
+  </si>
+  <si>
+    <t>if (bEquipWeapon)</t>
+  </si>
+  <si>
+    <t>EquipWeapon(NewWeapon);</t>
+  </si>
+  <si>
+    <t>ClientSyncCurrentWeapon(CurrentWeapon);</t>
+  </si>
+  <si>
+    <t>捡起操作，先将武器类加入到自己的仓库；会同步给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将武器和玩家建立建立，具体就是设置Owner和AttachToComponent，这样子武器从世界场景就装在了玩家身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将武器的技能添加到GAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,6 +1050,332 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+      <c r="E25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C38" s="2"/>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C39" s="2"/>
+      <c r="E39" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="2"/>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="2"/>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C42" s="2"/>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C43" s="2"/>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C45" s="2"/>
+      <c r="E45" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C46" s="2"/>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C47" s="2"/>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C48" s="2"/>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="2"/>
+      <c r="E49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
+      <c r="E50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="2"/>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E27"/>
@@ -1139,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -1148,4 +1681,179 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_gasshooter.xlsx
+++ b/doc/ue_gasshooter.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26506838-9E9B-4471-AC05-817DF391B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="输入控制" sheetId="1" r:id="rId1"/>
-    <sheet name="角色GA初始化" sheetId="2" r:id="rId2"/>
-    <sheet name="武器GA初始化" sheetId="3" r:id="rId3"/>
-    <sheet name="GA蓝图开发" sheetId="4" r:id="rId4"/>
-    <sheet name="GE条件检测" sheetId="5" r:id="rId5"/>
-    <sheet name="GE消耗" sheetId="6" r:id="rId6"/>
-    <sheet name="GE伤害计算" sheetId="7" r:id="rId7"/>
-    <sheet name="道具算什么" sheetId="8" r:id="rId8"/>
+    <sheet name="概述" sheetId="10" r:id="rId1"/>
+    <sheet name="GA的Input定义" sheetId="9" r:id="rId2"/>
+    <sheet name="输入控制" sheetId="1" r:id="rId3"/>
+    <sheet name="角色GA初始化" sheetId="2" r:id="rId4"/>
+    <sheet name="武器GA初始化" sheetId="3" r:id="rId5"/>
+    <sheet name="GA蓝图开发" sheetId="4" r:id="rId6"/>
+    <sheet name="GE条件检测" sheetId="5" r:id="rId7"/>
+    <sheet name="GE消耗" sheetId="6" r:id="rId8"/>
+    <sheet name="GE伤害计算" sheetId="7" r:id="rId9"/>
+    <sheet name="道具算什么" sheetId="8" r:id="rId10"/>
+    <sheet name="PickUp" sheetId="12" r:id="rId11"/>
+    <sheet name="TAG" sheetId="11" r:id="rId12"/>
+    <sheet name="同步" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
   <si>
     <t>void AGSHeroCharacter::SetupPlayerInputComponent(UInputComponent* PlayerInputComponent)</t>
   </si>
@@ -227,13 +233,261 @@
   </si>
   <si>
     <t>void UGSAbilitySystemComponent::AbilityLocalInputPressed(int32 InputID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UENUM(BlueprintType)</t>
+  </si>
+  <si>
+    <t>enum class EGSAbilityInputID : uint8</t>
+  </si>
+  <si>
+    <t>// 0 None</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "None"),</t>
+  </si>
+  <si>
+    <t>// 1 Confirm</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Confirm"),</t>
+  </si>
+  <si>
+    <t>// 2 Cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Cancel"),</t>
+  </si>
+  <si>
+    <t>// 3 Sprint</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Sprint"),</t>
+  </si>
+  <si>
+    <t>// 4 Jump</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Jump"),</t>
+  </si>
+  <si>
+    <t>// 5 PrimaryFire</t>
+  </si>
+  <si>
+    <t>PrimaryFire</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Primary Fire"),</t>
+  </si>
+  <si>
+    <t>// 6 SecondaryFire</t>
+  </si>
+  <si>
+    <t>SecondaryFire</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Secondary Fire"),</t>
+  </si>
+  <si>
+    <t>// 7 Alternate Fire</t>
+  </si>
+  <si>
+    <t>AlternateFire</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Alternate Fire"),</t>
+  </si>
+  <si>
+    <t>// 8 Reload</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Reload"),</t>
+  </si>
+  <si>
+    <t>// 9 NextWeapon</t>
+  </si>
+  <si>
+    <t>NextWeapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMETA(DisplayName = "Next Weapon"), </t>
+  </si>
+  <si>
+    <t>// 10 PrevWeapon</t>
+  </si>
+  <si>
+    <t>PrevWeapon</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Previous Weapon"),</t>
+  </si>
+  <si>
+    <t>// 11 Interact</t>
+  </si>
+  <si>
+    <t>Interact</t>
+  </si>
+  <si>
+    <t>UMETA(DisplayName = "Interact")</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>每一个GA里面对应的Input就选这个，表示对应的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GASShooter一个FPS的DEMO，包含了方方面面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家蓝图类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_HeroCharactor，继承自GSHeroCharactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了默认给与的所有GA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认给与的GE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这部分都是在BP_HeroCharactor里面配置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要就是基于事件Event ActivityAbility里面进行相关的判断，然后发送对应的GE等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGSDamageExecutionCalc</t>
+  </si>
+  <si>
+    <t>大部分的GE都是简单修改数值的，但是对于伤害类的计算时特殊的：一般都需要双方的信息，然后各自身上的BUFF等处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void Execute_Implementation(const FGameplayEffectCustomExecutionParameters&amp; ExecutionParams, OUT FGameplayEffectCustomExecutionOutput&amp; OutExecutionOutput) const override;</t>
+  </si>
+  <si>
+    <t>运算函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGameplayEffectCustomExecutionParameters</t>
+  </si>
+  <si>
+    <t>从该参数上可以获取足够的信息，例如来源和目标对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAbilitySystemComponent* TargetAbilitySystemComponent = ExecutionParams.GetTargetAbilitySystemComponent();</t>
+  </si>
+  <si>
+    <t>UAbilitySystemComponent* SourceAbilitySystemComponent = ExecutionParams.GetSourceAbilitySystemComponent();</t>
+  </si>
+  <si>
+    <t>AActor* SourceActor = SourceAbilitySystemComponent ? SourceAbilitySystemComponent-&gt;GetAvatarActor() : nullptr;</t>
+  </si>
+  <si>
+    <t>AActor* TargetActor = TargetAbilitySystemComponent ? TargetAbilitySystemComponent-&gt;GetAvatarActor() : nullptr;</t>
+  </si>
+  <si>
+    <t>const FGameplayEffectSpec&amp; Spec = ExecutionParams.GetOwningSpec();</t>
+  </si>
+  <si>
+    <t>FGameplayTagContainer AssetTags;</t>
+  </si>
+  <si>
+    <t>Spec.GetAllAssetTags(AssetTags);</t>
+  </si>
+  <si>
+    <t>// Gather the tags from the source and target as that can affect which buffs should be used</t>
+  </si>
+  <si>
+    <t>const FGameplayTagContainer* SourceTags = Spec.CapturedSourceTags.GetAggregatedTags();</t>
+  </si>
+  <si>
+    <t>const FGameplayTagContainer* TargetTags = Spec.CapturedTargetTags.GetAggregatedTags();</t>
+  </si>
+  <si>
+    <t>FAggregatorEvaluateParameters EvaluationParameters;</t>
+  </si>
+  <si>
+    <t>EvaluationParameters.SourceTags = SourceTags;</t>
+  </si>
+  <si>
+    <t>EvaluationParameters.TargetTags = TargetTags;</t>
+  </si>
+  <si>
+    <t>来源就在这个OwningSpec里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAbilitySystemComponent里面有一个临时缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Cached off data about the owning actor that abilities will need to frequently access (movement component, mesh component, anim instance, etc) */</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FGameplayAbilityActorInfo&gt;</t>
+  </si>
+  <si>
+    <t>AbilityActorInfo;</t>
+  </si>
+  <si>
+    <t>Event ActivityAbility</t>
+  </si>
+  <si>
+    <t>CanActivateAbility</t>
+  </si>
+  <si>
+    <t>激活技能蓝图实现，一般进行发送GE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以激活技能，进行部分条件判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,6 +568,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>56119</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95265B2-7950-43C1-9A09-36B5DD1E1E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="914400"/>
+          <a:ext cx="8247619" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,369 +881,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69271F83-A940-4F2C-BB2C-AA5132BE1D45}">
+  <dimension ref="B3:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>4</v>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="P55" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>10</v>
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -949,144 +945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1096,8 +960,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0C824A-6588-44BF-A973-DEEF349A65D1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1109,8 +973,802 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F453C16A-A7C0-4F33-AE57-19E2A3AA68B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB36C4F-5B25-47E2-BBD5-771E58C64851}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E52660-88D1-4139-81A3-A4F78F32100A}">
+  <dimension ref="B3:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:P59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="P55" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1122,29 +1780,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B4:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_gasshooter.xlsx
+++ b/doc/ue_gasshooter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26506838-9E9B-4471-AC05-817DF391B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246FEB6-22FF-42BA-B425-DFBFAA571634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="PickUp" sheetId="12" r:id="rId11"/>
     <sheet name="TAG" sheetId="11" r:id="rId12"/>
     <sheet name="同步" sheetId="13" r:id="rId13"/>
+    <sheet name="角色头顶血条" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
   <si>
     <t>void AGSHeroCharacter::SetupPlayerInputComponent(UInputComponent* PlayerInputComponent)</t>
   </si>
@@ -482,6 +483,104 @@
   <si>
     <t>是否可以激活技能，进行部分条件判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_HeroCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图里面配置了UI相关的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY(BlueprintReadWrite, EditAnywhere, Category = "GASShooter|UI")</t>
+  </si>
+  <si>
+    <t>TSubclassOf&lt;class UGSFloatingStatusBarWidget&gt; UIFloatingStatusBarClass;</t>
+  </si>
+  <si>
+    <t>蓝图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Server only</t>
+  </si>
+  <si>
+    <t>void AGSHeroCharacter::BeginPlay()</t>
+  </si>
+  <si>
+    <t>// Client only</t>
+  </si>
+  <si>
+    <t>void AGSHeroCharacter::OnRep_PlayerState()</t>
+  </si>
+  <si>
+    <t>在以下几个时机调用初始化InitializeFloatingStatusBar，创建Widget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是人身上挂了一个UWidgetComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPROPERTY(BlueprintReadOnly, VisibleAnywhere, Category = "GASShooter|UI")</t>
+  </si>
+  <si>
+    <t>class UWidgetComponent* UIFloatingStatusBarComponent;</t>
+  </si>
+  <si>
+    <t>void AGSHeroCharacter::InitializeFloatingStatusBar()</t>
+  </si>
+  <si>
+    <t>// Setup UI for Locally Owned Players only, not AI or the server's copy of the PlayerControllers</t>
+  </si>
+  <si>
+    <t>AGSPlayerController* PC = Cast&lt;AGSPlayerController&gt;(UGameplayStatics::GetPlayerController(GetWorld(), 0));</t>
+  </si>
+  <si>
+    <t>if (PC &amp;&amp; PC-&gt;IsLocalPlayerController())</t>
+  </si>
+  <si>
+    <t>if (UIFloatingStatusBarClass)</t>
+  </si>
+  <si>
+    <t>UIFloatingStatusBar = CreateWidget&lt;UGSFloatingStatusBarWidget&gt;(PC, UIFloatingStatusBarClass);</t>
+  </si>
+  <si>
+    <t>if (UIFloatingStatusBar &amp;&amp; UIFloatingStatusBarComponent)</t>
+  </si>
+  <si>
+    <t>UIFloatingStatusBarComponent-&gt;SetWidget(UIFloatingStatusBar);</t>
+  </si>
+  <si>
+    <t>// Setup the floating status bar</t>
+  </si>
+  <si>
+    <t>UIFloatingStatusBar-&gt;SetHealthPercentage(GetHealth() / GetMaxHealth());</t>
+  </si>
+  <si>
+    <t>UIFloatingStatusBar-&gt;SetManaPercentage(GetMana() / GetMaxMana());</t>
+  </si>
+  <si>
+    <t>UIFloatingStatusBar-&gt;SetShieldPercentage(GetShield() / GetMaxShield());</t>
+  </si>
+  <si>
+    <t>UIFloatingStatusBar-&gt;OwningCharacter = this;</t>
+  </si>
+  <si>
+    <t>UIFloatingStatusBar-&gt;SetCharacterName(CharacterName);</t>
   </si>
 </sst>
 </file>
@@ -612,6 +711,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA59254A-93EE-4942-B367-1CA27E99DA24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676275" y="619125"/>
+          <a:ext cx="5543550" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -992,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB36C4F-5B25-47E2-BBD5-771E58C64851}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -1000,6 +1165,225 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6444D71-31DA-4ADA-87BE-D37D071DFB54}">
+  <dimension ref="A2:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
